--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Penk-Ogfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Penk</t>
   </si>
   <si>
     <t>Ogfr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H2">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I2">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J2">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.499408666666668</v>
+        <v>9.457865333333332</v>
       </c>
       <c r="N2">
-        <v>19.498226</v>
+        <v>28.373596</v>
       </c>
       <c r="O2">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574282</v>
       </c>
       <c r="P2">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574283</v>
       </c>
       <c r="Q2">
-        <v>1.635506863940889</v>
+        <v>0.4689493368226666</v>
       </c>
       <c r="R2">
-        <v>14.719561775468</v>
+        <v>4.220544031404</v>
       </c>
       <c r="S2">
-        <v>0.001589123499253322</v>
+        <v>0.0004283502323818336</v>
       </c>
       <c r="T2">
-        <v>0.001589123499253322</v>
+        <v>0.0004283502323818337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H3">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I3">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J3">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.789593</v>
       </c>
       <c r="O3">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="P3">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="Q3">
-        <v>2.750383774263778</v>
+        <v>0.5419354632396666</v>
       </c>
       <c r="R3">
-        <v>24.753453968374</v>
+        <v>4.877419169156999</v>
       </c>
       <c r="S3">
-        <v>0.002672382234530066</v>
+        <v>0.0004950176136030043</v>
       </c>
       <c r="T3">
-        <v>0.002672382234530066</v>
+        <v>0.0004950176136030043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H4">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I4">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J4">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.813894</v>
+        <v>21.099269</v>
       </c>
       <c r="N4">
-        <v>56.441682</v>
+        <v>63.297807</v>
       </c>
       <c r="O4">
-        <v>0.2537064741508452</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="P4">
-        <v>0.2537064741508451</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="Q4">
-        <v>4.734315743564</v>
+        <v>1.046165054827</v>
       </c>
       <c r="R4">
-        <v>42.608841692076</v>
+        <v>9.415485493442999</v>
       </c>
       <c r="S4">
-        <v>0.004600049420064331</v>
+        <v>0.0009555937265657287</v>
       </c>
       <c r="T4">
-        <v>0.00460004942006433</v>
+        <v>0.000955593726565729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H5">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I5">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J5">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057998</v>
+        <v>3.446845333333334</v>
       </c>
       <c r="N5">
-        <v>15.173994</v>
+        <v>10.340536</v>
       </c>
       <c r="O5">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="P5">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="Q5">
-        <v>1.272791244721333</v>
+        <v>0.1709049321626667</v>
       </c>
       <c r="R5">
-        <v>11.455121202492</v>
+        <v>1.538144389464</v>
       </c>
       <c r="S5">
-        <v>0.001236694581493153</v>
+        <v>0.0001561089048618552</v>
       </c>
       <c r="T5">
-        <v>0.001236694581493153</v>
+        <v>0.0001561089048618553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H6">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I6">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J6">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.370358</v>
+        <v>15.458085</v>
       </c>
       <c r="N6">
-        <v>43.111074</v>
+        <v>46.37425500000001</v>
       </c>
       <c r="O6">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="P6">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="Q6">
-        <v>3.616147306881333</v>
+        <v>0.766458228555</v>
       </c>
       <c r="R6">
-        <v>32.545325761932</v>
+        <v>6.898124056995</v>
       </c>
       <c r="S6">
-        <v>0.003513592506900316</v>
+        <v>0.0007001024087952903</v>
       </c>
       <c r="T6">
-        <v>0.003513592506900316</v>
+        <v>0.0007001024087952905</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2516393333333333</v>
+        <v>0.049583</v>
       </c>
       <c r="H7">
-        <v>0.754918</v>
+        <v>0.148749</v>
       </c>
       <c r="I7">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="J7">
-        <v>0.01813138366082569</v>
+        <v>0.003300257029073341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.48462166666667</v>
+        <v>12.47691566666667</v>
       </c>
       <c r="N7">
-        <v>55.453865</v>
+        <v>37.430747</v>
       </c>
       <c r="O7">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="P7">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="Q7">
-        <v>4.651457873118889</v>
+        <v>0.6186429095003334</v>
       </c>
       <c r="R7">
-        <v>41.86312085807</v>
+        <v>5.567786185503</v>
       </c>
       <c r="S7">
-        <v>0.004519541418584508</v>
+        <v>0.0005650841428656285</v>
       </c>
       <c r="T7">
-        <v>0.004519541418584508</v>
+        <v>0.0005650841428656286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H8">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I8">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J8">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.499408666666668</v>
+        <v>9.457865333333332</v>
       </c>
       <c r="N8">
-        <v>19.498226</v>
+        <v>28.373596</v>
       </c>
       <c r="O8">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574282</v>
       </c>
       <c r="P8">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574283</v>
       </c>
       <c r="Q8">
-        <v>85.46096936905978</v>
+        <v>124.3618275142609</v>
       </c>
       <c r="R8">
-        <v>769.1487243215381</v>
+        <v>1119.256447628348</v>
       </c>
       <c r="S8">
-        <v>0.08303727589751631</v>
+        <v>0.1135952511972682</v>
       </c>
       <c r="T8">
-        <v>0.08303727589751632</v>
+        <v>0.1135952511972682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H9">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I9">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J9">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>32.789593</v>
       </c>
       <c r="O9">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="P9">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="Q9">
-        <v>143.7171978105566</v>
+        <v>143.7171978105565</v>
       </c>
       <c r="R9">
         <v>1293.454780295009</v>
       </c>
       <c r="S9">
-        <v>0.1396413438078043</v>
+        <v>0.1312749379208468</v>
       </c>
       <c r="T9">
-        <v>0.1396413438078044</v>
+        <v>0.1312749379208468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H10">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I10">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J10">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.813894</v>
+        <v>21.099269</v>
       </c>
       <c r="N10">
-        <v>56.441682</v>
+        <v>63.297807</v>
       </c>
       <c r="O10">
-        <v>0.2537064741508452</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="P10">
-        <v>0.2537064741508451</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="Q10">
-        <v>247.384600862674</v>
+        <v>277.4350828201323</v>
       </c>
       <c r="R10">
-        <v>2226.461407764066</v>
+        <v>2496.91574538119</v>
       </c>
       <c r="S10">
-        <v>0.2403687145873619</v>
+        <v>0.2534162496146489</v>
       </c>
       <c r="T10">
-        <v>0.2403687145873619</v>
+        <v>0.2534162496146489</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H11">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I11">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J11">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.057998</v>
+        <v>3.446845333333334</v>
       </c>
       <c r="N11">
-        <v>15.173994</v>
+        <v>10.340536</v>
       </c>
       <c r="O11">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="P11">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="Q11">
-        <v>66.50780621992467</v>
+        <v>45.32269911917422</v>
       </c>
       <c r="R11">
-        <v>598.570255979322</v>
+        <v>407.904292072568</v>
       </c>
       <c r="S11">
-        <v>0.06462162897513123</v>
+        <v>0.04139890426417558</v>
       </c>
       <c r="T11">
-        <v>0.06462162897513123</v>
+        <v>0.04139890426417558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,14 +1148,14 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H12">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I12">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J12">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.370358</v>
+        <v>15.458085</v>
       </c>
       <c r="N12">
-        <v>43.111074</v>
+        <v>46.37425500000001</v>
       </c>
       <c r="O12">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="P12">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="Q12">
-        <v>188.9563786254847</v>
+        <v>203.258941919535</v>
       </c>
       <c r="R12">
-        <v>1700.607407629362</v>
+        <v>1829.330477275815</v>
       </c>
       <c r="S12">
-        <v>0.1835975306664433</v>
+        <v>0.1856618789458754</v>
       </c>
       <c r="T12">
-        <v>0.1835975306664433</v>
+        <v>0.1856618789458754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.14903766666667</v>
+        <v>13.14903766666666</v>
       </c>
       <c r="H13">
-        <v>39.447113</v>
+        <v>39.44711299999999</v>
       </c>
       <c r="I13">
-        <v>0.9474283831024625</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="J13">
-        <v>0.9474283831024626</v>
+        <v>0.8752032750129437</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.48462166666667</v>
+        <v>12.47691566666667</v>
       </c>
       <c r="N13">
-        <v>55.453865</v>
+        <v>37.430747</v>
       </c>
       <c r="O13">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="P13">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="Q13">
-        <v>243.0549865490828</v>
+        <v>164.0594340648234</v>
       </c>
       <c r="R13">
-        <v>2187.494878941745</v>
+        <v>1476.534906583411</v>
       </c>
       <c r="S13">
-        <v>0.2361618891682055</v>
+        <v>0.1498560530701288</v>
       </c>
       <c r="T13">
-        <v>0.2361618891682055</v>
+        <v>0.1498560530701288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H14">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I14">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J14">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.499408666666668</v>
+        <v>9.457865333333332</v>
       </c>
       <c r="N14">
-        <v>19.498226</v>
+        <v>28.373596</v>
       </c>
       <c r="O14">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574282</v>
       </c>
       <c r="P14">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574283</v>
       </c>
       <c r="Q14">
-        <v>2.757116316956223</v>
+        <v>3.888998562144</v>
       </c>
       <c r="R14">
-        <v>24.814046852606</v>
+        <v>35.000987059296</v>
       </c>
       <c r="S14">
-        <v>0.002678923840706216</v>
+        <v>0.003552310040811386</v>
       </c>
       <c r="T14">
-        <v>0.002678923840706216</v>
+        <v>0.003552310040811387</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H15">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I15">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J15">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.789593</v>
       </c>
       <c r="O15">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="P15">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="Q15">
-        <v>4.636561392131445</v>
+        <v>4.494272774952</v>
       </c>
       <c r="R15">
-        <v>41.72905252918301</v>
+        <v>40.44845497456799</v>
       </c>
       <c r="S15">
-        <v>0.004505067405350294</v>
+        <v>0.004105182876644143</v>
       </c>
       <c r="T15">
-        <v>0.004505067405350294</v>
+        <v>0.004105182876644143</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H16">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I16">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J16">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.813894</v>
+        <v>21.099269</v>
       </c>
       <c r="N16">
-        <v>56.441682</v>
+        <v>63.297807</v>
       </c>
       <c r="O16">
-        <v>0.2537064741508452</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="P16">
-        <v>0.2537064741508451</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="Q16">
-        <v>7.981048245038001</v>
+        <v>8.675850618647999</v>
       </c>
       <c r="R16">
-        <v>71.82943420534201</v>
+        <v>78.08265556783199</v>
       </c>
       <c r="S16">
-        <v>0.007754703813534569</v>
+        <v>0.007924742262751652</v>
       </c>
       <c r="T16">
-        <v>0.007754703813534567</v>
+        <v>0.007924742262751654</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H17">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I17">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J17">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.057998</v>
+        <v>3.446845333333334</v>
       </c>
       <c r="N17">
-        <v>15.173994</v>
+        <v>10.340536</v>
       </c>
       <c r="O17">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="P17">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="Q17">
-        <v>2.145655017579334</v>
+        <v>1.417315226304</v>
       </c>
       <c r="R17">
-        <v>19.310895158214</v>
+        <v>12.755837036736</v>
       </c>
       <c r="S17">
-        <v>0.002084803729597404</v>
+        <v>0.001294611717886292</v>
       </c>
       <c r="T17">
-        <v>0.002084803729597404</v>
+        <v>0.001294611717886292</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H18">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I18">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J18">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.370358</v>
+        <v>15.458085</v>
       </c>
       <c r="N18">
-        <v>43.111074</v>
+        <v>46.37425500000001</v>
       </c>
       <c r="O18">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="P18">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="Q18">
-        <v>6.096054357299335</v>
+        <v>6.356240887320001</v>
       </c>
       <c r="R18">
-        <v>54.86448921569401</v>
+        <v>57.20616798588001</v>
       </c>
       <c r="S18">
-        <v>0.005923168801974593</v>
+        <v>0.005805951831824478</v>
       </c>
       <c r="T18">
-        <v>0.005923168801974593</v>
+        <v>0.005805951831824478</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.4242103333333334</v>
+        <v>0.411192</v>
       </c>
       <c r="H19">
-        <v>1.272631</v>
+        <v>1.233576</v>
       </c>
       <c r="I19">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="J19">
-        <v>0.03056565205712444</v>
+        <v>0.02736904358951103</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.48462166666667</v>
+        <v>12.47691566666667</v>
       </c>
       <c r="N19">
-        <v>55.453865</v>
+        <v>37.430747</v>
       </c>
       <c r="O19">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="P19">
-        <v>0.2492662172468028</v>
+        <v>0.1712242828020868</v>
       </c>
       <c r="Q19">
-        <v>7.841367518757222</v>
+        <v>5.130407906808001</v>
       </c>
       <c r="R19">
-        <v>70.572307668815</v>
+        <v>46.173671161272</v>
       </c>
       <c r="S19">
-        <v>0.007618984465961363</v>
+        <v>0.004686244859593077</v>
       </c>
       <c r="T19">
-        <v>0.007618984465961363</v>
+        <v>0.004686244859593077</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.053774</v>
+        <v>0.8604810000000001</v>
       </c>
       <c r="H20">
-        <v>0.161322</v>
+        <v>2.581443</v>
       </c>
       <c r="I20">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="J20">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.499408666666668</v>
+        <v>9.457865333333332</v>
       </c>
       <c r="N20">
-        <v>19.498226</v>
+        <v>28.373596</v>
       </c>
       <c r="O20">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574282</v>
       </c>
       <c r="P20">
-        <v>0.08764491055841209</v>
+        <v>0.1297929914574283</v>
       </c>
       <c r="Q20">
-        <v>0.3494992016413334</v>
+        <v>8.138313419892</v>
       </c>
       <c r="R20">
-        <v>3.145492814772</v>
+        <v>73.244820779028</v>
       </c>
       <c r="S20">
-        <v>0.00033958732093624</v>
+        <v>0.007433742135614074</v>
       </c>
       <c r="T20">
-        <v>0.00033958732093624</v>
+        <v>0.007433742135614076</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.053774</v>
+        <v>0.8604810000000001</v>
       </c>
       <c r="H21">
-        <v>0.161322</v>
+        <v>2.581443</v>
       </c>
       <c r="I21">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="J21">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.789593</v>
       </c>
       <c r="O21">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="P21">
-        <v>0.1473898674541846</v>
+        <v>0.1499936548099701</v>
       </c>
       <c r="Q21">
-        <v>0.5877425246606667</v>
+        <v>9.404940591411</v>
       </c>
       <c r="R21">
-        <v>5.289682721946001</v>
+        <v>84.64446532269899</v>
       </c>
       <c r="S21">
-        <v>0.0005710740064998574</v>
+        <v>0.008590711557806642</v>
       </c>
       <c r="T21">
-        <v>0.0005710740064998575</v>
+        <v>0.008590711557806642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.053774</v>
+        <v>0.8604810000000001</v>
       </c>
       <c r="H22">
-        <v>0.161322</v>
+        <v>2.581443</v>
       </c>
       <c r="I22">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="J22">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.813894</v>
+        <v>21.099269</v>
       </c>
       <c r="N22">
-        <v>56.441682</v>
+        <v>63.297807</v>
       </c>
       <c r="O22">
-        <v>0.2537064741508452</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="P22">
-        <v>0.2537064741508451</v>
+        <v>0.289551304079502</v>
       </c>
       <c r="Q22">
-        <v>1.011698335956</v>
+        <v>18.155520088389</v>
       </c>
       <c r="R22">
-        <v>9.105285023603999</v>
+        <v>163.399680795501</v>
       </c>
       <c r="S22">
-        <v>0.0009830063298843289</v>
+        <v>0.01658371307563086</v>
       </c>
       <c r="T22">
-        <v>0.0009830063298843289</v>
+        <v>0.01658371307563086</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.053774</v>
+        <v>0.8604810000000001</v>
       </c>
       <c r="H23">
-        <v>0.161322</v>
+        <v>2.581443</v>
       </c>
       <c r="I23">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="J23">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.057998</v>
+        <v>3.446845333333334</v>
       </c>
       <c r="N23">
-        <v>15.173994</v>
+        <v>10.340536</v>
       </c>
       <c r="O23">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="P23">
-        <v>0.06820740240388441</v>
+        <v>0.04730204450339073</v>
       </c>
       <c r="Q23">
-        <v>0.271988784452</v>
+        <v>2.965944919272</v>
       </c>
       <c r="R23">
-        <v>2.447899060068</v>
+        <v>26.693504273448</v>
       </c>
       <c r="S23">
-        <v>0.0002642751176626314</v>
+        <v>0.002709169404119035</v>
       </c>
       <c r="T23">
-        <v>0.0002642751176626314</v>
+        <v>0.002709169404119035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.053774</v>
+        <v>0.8604810000000001</v>
       </c>
       <c r="H24">
-        <v>0.161322</v>
+        <v>2.581443</v>
       </c>
       <c r="I24">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="J24">
-        <v>0.003874581179587349</v>
+        <v>0.05727383314107775</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.370358</v>
+        <v>15.458085</v>
       </c>
       <c r="N24">
-        <v>43.111074</v>
+        <v>46.37425500000001</v>
       </c>
       <c r="O24">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="P24">
-        <v>0.1937851281858711</v>
+        <v>0.2121357223476221</v>
       </c>
       <c r="Q24">
-        <v>0.772751631092</v>
+        <v>13.301388438885</v>
       </c>
       <c r="R24">
-        <v>6.954764679828</v>
+        <v>119.712495949965</v>
       </c>
       <c r="S24">
-        <v>0.000750836210552898</v>
+        <v>0.0121498259649997</v>
       </c>
       <c r="T24">
-        <v>0.0007508362105528981</v>
+        <v>0.0121498259649997</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.8604810000000001</v>
+      </c>
+      <c r="H25">
+        <v>2.581443</v>
+      </c>
+      <c r="I25">
+        <v>0.05727383314107775</v>
+      </c>
+      <c r="J25">
+        <v>0.05727383314107775</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.47691566666667</v>
+      </c>
+      <c r="N25">
+        <v>37.430747</v>
+      </c>
+      <c r="O25">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="P25">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="Q25">
+        <v>10.736148869769</v>
+      </c>
+      <c r="R25">
+        <v>96.62533982792101</v>
+      </c>
+      <c r="S25">
+        <v>0.009806671002907427</v>
+      </c>
+      <c r="T25">
+        <v>0.009806671002907427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.777349</v>
+      </c>
+      <c r="I26">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J26">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.457865333333332</v>
+      </c>
+      <c r="N26">
+        <v>28.373596</v>
+      </c>
+      <c r="O26">
+        <v>0.1297929914574282</v>
+      </c>
+      <c r="P26">
+        <v>0.1297929914574283</v>
+      </c>
+      <c r="Q26">
+        <v>2.450687386333778</v>
+      </c>
+      <c r="R26">
+        <v>22.056186477004</v>
+      </c>
+      <c r="S26">
+        <v>0.0022385200894916</v>
+      </c>
+      <c r="T26">
+        <v>0.0022385200894916</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.777349</v>
+      </c>
+      <c r="I27">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J27">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.92986433333333</v>
+      </c>
+      <c r="N27">
+        <v>32.789593</v>
+      </c>
+      <c r="O27">
+        <v>0.1499936548099701</v>
+      </c>
+      <c r="P27">
+        <v>0.1499936548099701</v>
+      </c>
+      <c r="Q27">
+        <v>2.832106369884111</v>
+      </c>
+      <c r="R27">
+        <v>25.488957328957</v>
+      </c>
+      <c r="S27">
+        <v>0.002586917874518026</v>
+      </c>
+      <c r="T27">
+        <v>0.002586917874518025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.777349</v>
+      </c>
+      <c r="I28">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J28">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>21.099269</v>
+      </c>
+      <c r="N28">
+        <v>63.297807</v>
+      </c>
+      <c r="O28">
+        <v>0.289551304079502</v>
+      </c>
+      <c r="P28">
+        <v>0.289551304079502</v>
+      </c>
+      <c r="Q28">
+        <v>5.467165219293666</v>
+      </c>
+      <c r="R28">
+        <v>49.20448697364299</v>
+      </c>
+      <c r="S28">
+        <v>0.004993847540165936</v>
+      </c>
+      <c r="T28">
+        <v>0.004993847540165936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.777349</v>
+      </c>
+      <c r="I29">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J29">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.446845333333334</v>
+      </c>
+      <c r="N29">
+        <v>10.340536</v>
+      </c>
+      <c r="O29">
+        <v>0.04730204450339073</v>
+      </c>
+      <c r="P29">
+        <v>0.04730204450339073</v>
+      </c>
+      <c r="Q29">
+        <v>0.8931339243404445</v>
+      </c>
+      <c r="R29">
+        <v>8.038205319064</v>
+      </c>
+      <c r="S29">
+        <v>0.0008158112060279958</v>
+      </c>
+      <c r="T29">
+        <v>0.0008158112060279956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.777349</v>
+      </c>
+      <c r="I30">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J30">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.458085</v>
+      </c>
+      <c r="N30">
+        <v>46.37425500000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2121357223476221</v>
+      </c>
+      <c r="P30">
+        <v>0.2121357223476221</v>
+      </c>
+      <c r="Q30">
+        <v>4.005442305555</v>
+      </c>
+      <c r="R30">
+        <v>36.048980749995</v>
+      </c>
+      <c r="S30">
+        <v>0.003658672712923181</v>
+      </c>
+      <c r="T30">
+        <v>0.003658672712923181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.2591163333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.777349</v>
+      </c>
+      <c r="I31">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="J31">
+        <v>0.0172468487270041</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.47691566666667</v>
+      </c>
+      <c r="N31">
+        <v>37.430747</v>
+      </c>
+      <c r="O31">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="P31">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="Q31">
+        <v>3.232972638855889</v>
+      </c>
+      <c r="R31">
+        <v>29.096753749703</v>
+      </c>
+      <c r="S31">
+        <v>0.002953079303877361</v>
+      </c>
+      <c r="T31">
+        <v>0.00295307930387736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G25">
-        <v>0.053774</v>
-      </c>
-      <c r="H25">
-        <v>0.161322</v>
-      </c>
-      <c r="I25">
-        <v>0.003874581179587349</v>
-      </c>
-      <c r="J25">
-        <v>0.003874581179587349</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>18.48462166666667</v>
-      </c>
-      <c r="N25">
-        <v>55.453865</v>
-      </c>
-      <c r="O25">
-        <v>0.2492662172468028</v>
-      </c>
-      <c r="P25">
-        <v>0.2492662172468028</v>
-      </c>
-      <c r="Q25">
-        <v>0.9939920455033332</v>
-      </c>
-      <c r="R25">
-        <v>8.94592840953</v>
-      </c>
-      <c r="S25">
-        <v>0.0009658021940513933</v>
-      </c>
-      <c r="T25">
-        <v>0.0009658021940513934</v>
+      <c r="G32">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H32">
+        <v>0.883714</v>
+      </c>
+      <c r="I32">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J32">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9.457865333333332</v>
+      </c>
+      <c r="N32">
+        <v>28.373596</v>
+      </c>
+      <c r="O32">
+        <v>0.1297929914574282</v>
+      </c>
+      <c r="P32">
+        <v>0.1297929914574283</v>
+      </c>
+      <c r="Q32">
+        <v>2.786016001727111</v>
+      </c>
+      <c r="R32">
+        <v>25.074144015544</v>
+      </c>
+      <c r="S32">
+        <v>0.00254481776186112</v>
+      </c>
+      <c r="T32">
+        <v>0.002544817761861121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H33">
+        <v>0.883714</v>
+      </c>
+      <c r="I33">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J33">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>10.92986433333333</v>
+      </c>
+      <c r="N33">
+        <v>32.789593</v>
+      </c>
+      <c r="O33">
+        <v>0.1499936548099701</v>
+      </c>
+      <c r="P33">
+        <v>0.1499936548099701</v>
+      </c>
+      <c r="Q33">
+        <v>3.219624709822444</v>
+      </c>
+      <c r="R33">
+        <v>28.976622388402</v>
+      </c>
+      <c r="S33">
+        <v>0.002940886966551475</v>
+      </c>
+      <c r="T33">
+        <v>0.002940886966551475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H34">
+        <v>0.883714</v>
+      </c>
+      <c r="I34">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J34">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>21.099269</v>
+      </c>
+      <c r="N34">
+        <v>63.297807</v>
+      </c>
+      <c r="O34">
+        <v>0.289551304079502</v>
+      </c>
+      <c r="P34">
+        <v>0.289551304079502</v>
+      </c>
+      <c r="Q34">
+        <v>6.215239801688667</v>
+      </c>
+      <c r="R34">
+        <v>55.937158215198</v>
+      </c>
+      <c r="S34">
+        <v>0.005677157859738933</v>
+      </c>
+      <c r="T34">
+        <v>0.005677157859738934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H35">
+        <v>0.883714</v>
+      </c>
+      <c r="I35">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J35">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.446845333333334</v>
+      </c>
+      <c r="N35">
+        <v>10.340536</v>
+      </c>
+      <c r="O35">
+        <v>0.04730204450339073</v>
+      </c>
+      <c r="P35">
+        <v>0.04730204450339073</v>
+      </c>
+      <c r="Q35">
+        <v>1.015341825633778</v>
+      </c>
+      <c r="R35">
+        <v>9.138076430704</v>
+      </c>
+      <c r="S35">
+        <v>0.0009274390063199724</v>
+      </c>
+      <c r="T35">
+        <v>0.0009274390063199724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H36">
+        <v>0.883714</v>
+      </c>
+      <c r="I36">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J36">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.458085</v>
+      </c>
+      <c r="N36">
+        <v>46.37425500000001</v>
+      </c>
+      <c r="O36">
+        <v>0.2121357223476221</v>
+      </c>
+      <c r="P36">
+        <v>0.2121357223476221</v>
+      </c>
+      <c r="Q36">
+        <v>4.553508709230001</v>
+      </c>
+      <c r="R36">
+        <v>40.98157838307</v>
+      </c>
+      <c r="S36">
+        <v>0.004159290483204064</v>
+      </c>
+      <c r="T36">
+        <v>0.004159290483204064</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.2945713333333334</v>
+      </c>
+      <c r="H37">
+        <v>0.883714</v>
+      </c>
+      <c r="I37">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="J37">
+        <v>0.01960674250039005</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>12.47691566666667</v>
+      </c>
+      <c r="N37">
+        <v>37.430747</v>
+      </c>
+      <c r="O37">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="P37">
+        <v>0.1712242828020868</v>
+      </c>
+      <c r="Q37">
+        <v>3.675341683817556</v>
+      </c>
+      <c r="R37">
+        <v>33.078075154358</v>
+      </c>
+      <c r="S37">
+        <v>0.003357150422714479</v>
+      </c>
+      <c r="T37">
+        <v>0.003357150422714479</v>
       </c>
     </row>
   </sheetData>
